--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.012121.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.012121.xlsx_with_dialog_acts.xlsx
@@ -1441,12 +1441,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1861,12 +1861,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2071,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2575,12 +2575,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2617,12 +2617,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2827,12 +2827,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3037,12 +3037,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3331,12 +3331,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3587,12 +3587,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3629,12 +3629,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4133,12 +4133,12 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4469,12 +4469,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4805,12 +4805,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4847,12 +4847,12 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5477,12 +5477,12 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -5687,12 +5687,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5855,12 +5855,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7241,12 +7241,12 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7703,12 +7703,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8123,12 +8123,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8165,12 +8165,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8249,12 +8249,12 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8421,12 +8421,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8463,12 +8463,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8673,12 +8673,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8715,12 +8715,12 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9051,12 +9051,12 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9093,12 +9093,12 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9135,12 +9135,12 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9219,12 +9219,12 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9681,12 +9681,12 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9807,12 +9807,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10477,12 +10477,12 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10559,12 +10559,12 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10595,12 +10595,12 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10959,12 +10959,12 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11599,12 +11599,12 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12163,12 +12163,12 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12203,12 +12203,12 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12727,12 +12727,12 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12767,12 +12767,12 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12887,12 +12887,12 @@
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12967,12 +12967,12 @@
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13607,12 +13607,12 @@
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13727,12 +13727,12 @@
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14205,12 +14205,12 @@
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14325,12 +14325,12 @@
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14405,12 +14405,12 @@
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14645,12 +14645,12 @@
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15125,12 +15125,12 @@
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15445,12 +15445,12 @@
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15645,12 +15645,12 @@
       <c r="H368" t="inlineStr"/>
       <c r="I368" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15725,12 +15725,12 @@
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16285,12 +16285,12 @@
       <c r="H384" t="inlineStr"/>
       <c r="I384" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16405,12 +16405,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16813,12 +16813,12 @@
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17521,12 +17521,12 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18173,12 +18173,12 @@
       <c r="H432" t="inlineStr"/>
       <c r="I432" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18541,12 +18541,12 @@
       <c r="H441" t="inlineStr"/>
       <c r="I441" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18781,12 +18781,12 @@
       <c r="H447" t="inlineStr"/>
       <c r="I447" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18821,12 +18821,12 @@
       <c r="H448" t="inlineStr"/>
       <c r="I448" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19021,12 +19021,12 @@
       <c r="H453" t="inlineStr"/>
       <c r="I453" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19301,12 +19301,12 @@
       <c r="H460" t="inlineStr"/>
       <c r="I460" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20065,12 +20065,12 @@
       <c r="H479" t="inlineStr"/>
       <c r="I479" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20189,12 +20189,12 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20553,12 +20553,12 @@
       <c r="H491" t="inlineStr"/>
       <c r="I491" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20673,12 +20673,12 @@
       <c r="H494" t="inlineStr"/>
       <c r="I494" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20873,12 +20873,12 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21073,12 +21073,12 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21113,12 +21113,12 @@
       <c r="H505" t="inlineStr"/>
       <c r="I505" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21393,12 +21393,12 @@
       <c r="H512" t="inlineStr"/>
       <c r="I512" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21997,12 +21997,12 @@
       <c r="H527" t="inlineStr"/>
       <c r="I527" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22157,12 +22157,12 @@
       <c r="H531" t="inlineStr"/>
       <c r="I531" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22197,12 +22197,12 @@
       <c r="H532" t="inlineStr"/>
       <c r="I532" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -22237,12 +22237,12 @@
       <c r="H533" t="inlineStr"/>
       <c r="I533" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22397,12 +22397,12 @@
       <c r="H537" t="inlineStr"/>
       <c r="I537" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22437,12 +22437,12 @@
       <c r="H538" t="inlineStr"/>
       <c r="I538" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J538" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -22601,12 +22601,12 @@
       <c r="H542" t="inlineStr"/>
       <c r="I542" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22801,12 +22801,12 @@
       <c r="H547" t="inlineStr"/>
       <c r="I547" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23041,12 +23041,12 @@
       <c r="H553" t="inlineStr"/>
       <c r="I553" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J553" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23081,12 +23081,12 @@
       <c r="H554" t="inlineStr"/>
       <c r="I554" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23481,12 +23481,12 @@
       <c r="H564" t="inlineStr"/>
       <c r="I564" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23601,12 +23601,12 @@
       <c r="H567" t="inlineStr"/>
       <c r="I567" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J567" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23961,12 +23961,12 @@
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -24361,12 +24361,12 @@
       <c r="H586" t="inlineStr"/>
       <c r="I586" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24921,12 +24921,12 @@
       <c r="H600" t="inlineStr"/>
       <c r="I600" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25321,12 +25321,12 @@
       <c r="H610" t="inlineStr"/>
       <c r="I610" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J610" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25681,12 +25681,12 @@
       <c r="H619" t="inlineStr"/>
       <c r="I619" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J619" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
